--- a/tests/regression_data/kofskey1972a_isentropic_1.xlsx
+++ b/tests/regression_data/kofskey1972a_isentropic_1.xlsx
@@ -2048,7 +2048,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>reaction</t>
         </is>
       </c>
     </row>
@@ -2056,8 +2056,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.4387485699628177</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.43874857]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>1.96668229580741</v>
+      </c>
+      <c r="C2" t="n">
         <v>2.297999999924785</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.96668229580741</v>
       </c>
       <c r="D2" t="n">
         <v>2.90213232902303</v>
@@ -2241,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2467,264 +2469,213 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stator</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.018294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01912286864605749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.758627359861796</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6993119266055047</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1930428134556575</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.06467468632777131</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0970948012232416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-31.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-61.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00447</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02232605854162319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.118715</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.6986814997939843</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.036565</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.03949999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.257102584362989</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.637772288907632</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5848042977743668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.171527244819647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.06897503103876397</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00820456720907972</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.06216423637759017</v>
+          <t>['stator' 'rotor']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.018294 0.01524 ]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.02616 0.02606]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 43.03 -31.05]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.007731 0.007249]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.00254 0.00162]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[50. 50.]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0.  29.6]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[ 65.  -61.6]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.0005 0.0005]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.00505 0.00447]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0.     0.0003]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1. 1.]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.01912287 0.02232606]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.084785]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118415]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118715]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.6986815 ]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02146844]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[0.03363  0.036565]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.03363]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.0395 ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[0.         0.25710258]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[1.75862736 1.63777229]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[0.69931193 0.5848043 ]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[0.19304281 0.17152724]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[0.06467469 0.06897503]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[0.         0.00820457]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[0.0970948  0.06216424]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3062,6 +3013,23 @@
         <v>1.238314345761659e-08</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.374858288930299e-09</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/regression_data/kofskey1972a_isentropic_1.xlsx
+++ b/tests/regression_data/kofskey1972a_isentropic_1.xlsx
@@ -2243,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2444,20 +2444,25 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>thickness_max_chord_ratio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>thickness_te_opening_ratio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tip_clearance_height_ratio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>diameter_le_chord_ratio</t>
         </is>
@@ -2659,20 +2664,25 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>[1.42997704 1.70997375]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>[0.19304281 0.17152724]</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[0.06467469 0.06897503]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>[0.         0.00820457]</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>[0.0970948  0.06216424]</t>
         </is>
